--- a/biology/Médecine/Palilalie/Palilalie.xlsx
+++ b/biology/Médecine/Palilalie/Palilalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La palilalie est un trouble du langage parlé consistant à répéter spontanément et involontairement un ou plusieurs mots ou phrases.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La palilalie concerne généralement la répétition rapide de syllabes, parfois de mots, et lorsqu'il s'agit de la répétition de segments plus complexes, on parle de paliphrasie. Ce symptôme doit être distingué du bégaiement.
 </t>
@@ -542,10 +556,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une palilalie peut-être observée dans différents troubles neurologiques :
-Maladie de Parkinson : la palilalie s'accompagne d'une baisse de l'intensité de la voix, on parle alors de palilalie aphone[1].
+Maladie de Parkinson : la palilalie s'accompagne d'une baisse de l'intensité de la voix, on parle alors de palilalie aphone.
 Paralysie supranucléaire progressive : la palilalie possible est d'un ton monocorde.
 Lésions cérébrales vasculaires, traumatiques, tumorales
 Épilepsie soit durant la crise, soit en phase post-critique
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
